--- a/Excel/TI/Mon_TI_2024_03_31.xlsx
+++ b/Excel/TI/Mon_TI_2024_03_31.xlsx
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Questionable</t>
+          <t>Day-To-Day</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -2824,45 +2824,45 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Lauri Markkanen</t>
+          <t>D'Angelo Russell</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Questionable</t>
+          <t>Day-To-Day</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>24.2</v>
+        <v>24.4</v>
       </c>
       <c r="G17" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="H17" t="n">
-        <v>34.7</v>
+        <v>26.2</v>
       </c>
       <c r="I17" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
@@ -2873,20 +2873,16 @@
         </is>
       </c>
       <c r="O17" t="n">
-        <v>21</v>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>13</v>
+      </c>
+      <c r="P17" t="n">
+        <v>50</v>
       </c>
       <c r="Q17" t="n">
-        <v>34</v>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>35</v>
+      </c>
+      <c r="R17" t="n">
+        <v>7</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2894,7 +2890,7 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>-2.7</v>
+        <v>-1.9</v>
       </c>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
@@ -2905,24 +2901,26 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="Z17" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AB17" t="n">
-        <v>30</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
@@ -2936,34 +2934,34 @@
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
           <t>CLE</t>
         </is>
       </c>
-      <c r="AG17" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AH17" t="inlineStr">
-        <is>
-          <t>LAC</t>
-        </is>
-      </c>
-      <c r="AI17" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>GSW</t>
-        </is>
-      </c>
       <c r="AK17" t="inlineStr">
         <is>
           <t>vs</t>
@@ -2971,63 +2969,71 @@
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>MIN</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>James Harden</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
+          <t>Lauri Markkanen</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Questionable</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>24.4</v>
+        <v>24.2</v>
       </c>
       <c r="G18" t="n">
-        <v>28</v>
+        <v>29.5</v>
       </c>
       <c r="H18" t="n">
-        <v>31</v>
+        <v>34.7</v>
       </c>
       <c r="I18" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
-      <c r="N18" t="n">
-        <v>23</v>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="O18" t="n">
-        <v>24</v>
-      </c>
-      <c r="P18" t="n">
-        <v>39</v>
+        <v>21</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="Q18" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -3040,7 +3046,7 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>0.3</v>
+        <v>-2.7</v>
       </c>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
@@ -3051,26 +3057,24 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="Z18" t="n">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB18" t="n">
+        <v>30</v>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
@@ -3084,129 +3088,131 @@
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AL18" t="inlineStr">
+        <is>
           <t>DEN</t>
-        </is>
-      </c>
-      <c r="AI18" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AJ18" t="inlineStr">
-        <is>
-          <t>UTA</t>
-        </is>
-      </c>
-      <c r="AK18" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AL18" t="inlineStr">
-        <is>
-          <t>CLE</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Nic Claxton</t>
+          <t>James Harden</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>26</v>
+        <v>24.4</v>
       </c>
       <c r="G19" t="n">
-        <v>27.7</v>
+        <v>28</v>
       </c>
       <c r="H19" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J19" t="n">
+        <v>4</v>
+      </c>
+      <c r="K19" t="n">
         <v>3</v>
       </c>
-      <c r="K19" t="n">
-        <v>5</v>
-      </c>
       <c r="L19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="O19" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="P19" t="n">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="Q19" t="n">
-        <v>27</v>
-      </c>
-      <c r="R19" t="n">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="Z19" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
@@ -3235,7 +3241,7 @@
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
@@ -3245,7 +3251,7 @@
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
@@ -3255,7 +3261,7 @@
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
@@ -3265,7 +3271,7 @@
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>CLE</t>
         </is>
       </c>
     </row>
@@ -3277,54 +3283,54 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Cam Thomas</t>
+          <t>Nic Claxton</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>30.6</v>
+        <v>26</v>
       </c>
       <c r="G20" t="n">
-        <v>27.2</v>
+        <v>27.7</v>
       </c>
       <c r="H20" t="n">
-        <v>26.1</v>
+        <v>28</v>
       </c>
       <c r="I20" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
         <v>5</v>
       </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="O20" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="P20" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q20" t="n">
         <v>27</v>
       </c>
-      <c r="Q20" t="n">
-        <v>45</v>
-      </c>
       <c r="R20" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -3332,7 +3338,7 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
@@ -3352,7 +3358,7 @@
         </is>
       </c>
       <c r="Z20" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
@@ -3418,59 +3424,59 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Miles Bridges</t>
+          <t>Cam Thomas</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>27</v>
+        <v>30.6</v>
       </c>
       <c r="G21" t="n">
-        <v>26.6</v>
+        <v>27.2</v>
       </c>
       <c r="H21" t="n">
-        <v>30.2</v>
+        <v>26.1</v>
       </c>
       <c r="I21" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>5</v>
       </c>
       <c r="L21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="O21" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="P21" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="Q21" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="R21" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -3478,7 +3484,7 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
@@ -3489,7 +3495,7 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
@@ -3498,7 +3504,7 @@
         </is>
       </c>
       <c r="Z21" t="n">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
@@ -3522,12 +3528,12 @@
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
@@ -3537,7 +3543,7 @@
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr">
@@ -3547,7 +3553,7 @@
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
@@ -3557,94 +3563,94 @@
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>SAC</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Austin Reaves</t>
+          <t>Miles Bridges</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>28.2</v>
+        <v>27</v>
       </c>
       <c r="G22" t="n">
-        <v>26.4</v>
+        <v>26.6</v>
       </c>
       <c r="H22" t="n">
-        <v>25.6</v>
+        <v>30.2</v>
       </c>
       <c r="I22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L22" t="n">
         <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N22" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="O22" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="P22" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="Q22" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="R22" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>-1.1</v>
+        <v>2.8</v>
       </c>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="Z22" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
@@ -3668,22 +3674,22 @@
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
@@ -3693,7 +3699,7 @@
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
@@ -3703,19 +3709,19 @@
       </c>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>OKC</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Stephen Curry</t>
+          <t>Austin Reaves</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -3726,43 +3732,43 @@
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>32.8</v>
+        <v>28.2</v>
       </c>
       <c r="G23" t="n">
-        <v>24.5</v>
+        <v>26.4</v>
       </c>
       <c r="H23" t="n">
-        <v>34</v>
+        <v>25.6</v>
       </c>
       <c r="I23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K23" t="n">
+        <v>6</v>
+      </c>
+      <c r="L23" t="n">
         <v>3</v>
       </c>
-      <c r="L23" t="n">
+      <c r="M23" t="n">
         <v>2</v>
       </c>
-      <c r="M23" t="n">
-        <v>3</v>
-      </c>
       <c r="N23" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="O23" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="P23" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="Q23" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="R23" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -3770,7 +3776,7 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>-0.9</v>
+        <v>-1.1</v>
       </c>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
@@ -3781,7 +3787,7 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -3790,7 +3796,7 @@
         </is>
       </c>
       <c r="Z23" t="n">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
@@ -3814,12 +3820,12 @@
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
@@ -3829,17 +3835,17 @@
       </c>
       <c r="AH23" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
@@ -3849,19 +3855,19 @@
       </c>
       <c r="AL23" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIN</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Terry Rozier</t>
+          <t>Stephen Curry</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -3872,43 +3878,43 @@
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>22.8</v>
+        <v>32.8</v>
       </c>
       <c r="G24" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="H24" t="n">
-        <v>27.9</v>
+        <v>34</v>
       </c>
       <c r="I24" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J24" t="n">
+        <v>4</v>
+      </c>
+      <c r="K24" t="n">
         <v>3</v>
-      </c>
-      <c r="K24" t="n">
-        <v>8</v>
       </c>
       <c r="L24" t="n">
         <v>2</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N24" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="O24" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="P24" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Q24" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="R24" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -3916,7 +3922,7 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>2.3</v>
+        <v>-0.9</v>
       </c>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
@@ -3927,7 +3933,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -3936,15 +3942,17 @@
         </is>
       </c>
       <c r="Z24" t="n">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB24" t="n">
-        <v>24</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
@@ -3963,17 +3971,17 @@
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="AI24" t="inlineStr">
@@ -3983,82 +3991,76 @@
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>UTA</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Tobias Harris</t>
+          <t>Terry Rozier</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>19.8</v>
+        <v>22.8</v>
       </c>
       <c r="G25" t="n">
-        <v>22.9</v>
+        <v>24.4</v>
       </c>
       <c r="H25" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="I25" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="O25" t="n">
-        <v>24</v>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>14</v>
+      </c>
+      <c r="P25" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>23</v>
+      </c>
+      <c r="R25" t="n">
+        <v>25</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -4066,7 +4068,7 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>-0.9</v>
+        <v>2.3</v>
       </c>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
@@ -4077,7 +4079,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -4086,23 +4088,25 @@
         </is>
       </c>
       <c r="Z25" t="n">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB25" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AD25" t="n">
-        <v>22</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
@@ -4111,17 +4115,17 @@
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH25" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="AI25" t="inlineStr">
@@ -4131,7 +4135,7 @@
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="AK25" t="inlineStr">
@@ -4141,19 +4145,19 @@
       </c>
       <c r="AL25" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>IND</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Andrew Wiggins</t>
+          <t>Tobias Harris</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -4164,43 +4168,49 @@
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>20.4</v>
+        <v>19.8</v>
       </c>
       <c r="G26" t="n">
-        <v>20.7</v>
+        <v>22.9</v>
       </c>
       <c r="H26" t="n">
-        <v>17.9</v>
+        <v>27.8</v>
       </c>
       <c r="I26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="O26" t="n">
-        <v>9</v>
-      </c>
-      <c r="P26" t="n">
-        <v>42</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>9</v>
-      </c>
-      <c r="R26" t="n">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -4208,7 +4218,7 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>1.2</v>
+        <v>-0.9</v>
       </c>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
@@ -4219,149 +4229,149 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="Z26" t="n">
+        <v>53</v>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB26" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AD26" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="AG26" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AL26" t="inlineStr">
+        <is>
           <t>SAS</t>
-        </is>
-      </c>
-      <c r="Y26" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="Z26" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA26" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AB26" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AD26" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE26" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AF26" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="AG26" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AH26" t="inlineStr">
-        <is>
-          <t>HOU</t>
-        </is>
-      </c>
-      <c r="AI26" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AJ26" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="AK26" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AL26" t="inlineStr">
-        <is>
-          <t>UTA</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Donte DiVincenzo</t>
+          <t>Andrew Wiggins</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="G27" t="n">
-        <v>19.5</v>
+        <v>20.7</v>
       </c>
       <c r="H27" t="n">
-        <v>18.5</v>
+        <v>17.9</v>
       </c>
       <c r="I27" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J27" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="O27" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="P27" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="Q27" t="n">
         <v>9</v>
       </c>
       <c r="R27" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>-0.6</v>
+        <v>1.2</v>
       </c>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -4370,46 +4380,42 @@
         </is>
       </c>
       <c r="Z27" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB27" t="n">
+        <v>16</v>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AD27" t="n">
+        <v>9</v>
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH27" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="AI27" t="inlineStr">
@@ -4419,76 +4425,76 @@
       </c>
       <c r="AJ27" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>UTA</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Brandon Miller</t>
+          <t>Donte DiVincenzo</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>13</v>
+        <v>20.8</v>
       </c>
       <c r="G28" t="n">
-        <v>18.8</v>
+        <v>19.5</v>
       </c>
       <c r="H28" t="n">
-        <v>20.7</v>
+        <v>18.5</v>
       </c>
       <c r="I28" t="n">
         <v>13</v>
       </c>
       <c r="J28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K28" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L28" t="n">
+        <v>2</v>
+      </c>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
       <c r="N28" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="O28" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="P28" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="Q28" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="R28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -4496,7 +4502,7 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>1.8</v>
+        <v>-0.6</v>
       </c>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
@@ -4507,18 +4513,16 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="Z28" t="n">
+        <v>21</v>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
@@ -4542,12 +4546,12 @@
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
@@ -4557,39 +4561,39 @@
       </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="AK28" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIL</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Gordon Hayward</t>
+          <t>Brandon Miller</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -4600,199 +4604,193 @@
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>8.6</v>
+        <v>13</v>
       </c>
       <c r="G29" t="n">
-        <v>9</v>
+        <v>18.8</v>
       </c>
       <c r="H29" t="n">
-        <v>17.8</v>
+        <v>20.7</v>
       </c>
       <c r="I29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J29" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="N29" t="n">
+        <v>10</v>
       </c>
       <c r="O29" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
         <v>14</v>
       </c>
-      <c r="Q29" t="n">
-        <v>9</v>
-      </c>
       <c r="R29" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>-0.3</v>
+        <v>1.8</v>
       </c>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="Z29" t="n">
-        <v>9</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AB29" t="n">
-        <v>8</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AD29" t="n">
-        <v>3</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH29" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ29" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="AK29" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>OKC</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Donovan Mitchell</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Out</t>
-        </is>
-      </c>
+          <t>Gordon Hayward</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>23.6</v>
+        <v>8.6</v>
       </c>
       <c r="G30" t="n">
-        <v>38.9</v>
+        <v>9</v>
       </c>
       <c r="H30" t="n">
-        <v>38.8</v>
+        <v>17.8</v>
       </c>
       <c r="I30" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J30" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="O30" t="n">
+        <v>9</v>
+      </c>
+      <c r="P30" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>9</v>
       </c>
       <c r="R30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -4800,7 +4798,7 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>-4.5</v>
+        <v>-0.3</v>
       </c>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
@@ -4811,38 +4809,32 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="Z30" t="n">
+        <v>9</v>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB30" t="n">
+        <v>8</v>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AD30" t="n">
+        <v>3</v>
       </c>
       <c r="AE30" t="inlineStr">
         <is>
@@ -4851,7 +4843,7 @@
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="AG30" t="inlineStr">
@@ -4861,7 +4853,7 @@
       </c>
       <c r="AH30" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="AI30" t="inlineStr">
@@ -4871,7 +4863,7 @@
       </c>
       <c r="AJ30" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="AK30" t="inlineStr">
@@ -4881,19 +4873,19 @@
       </c>
       <c r="AL30" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>CHA</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Scottie Barnes</t>
+          <t>Donovan Mitchell</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4903,27 +4895,27 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>33.2</v>
+        <v>23.6</v>
       </c>
       <c r="G31" t="n">
-        <v>33.1</v>
+        <v>38.9</v>
       </c>
       <c r="H31" t="n">
-        <v>34.1</v>
+        <v>38.8</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -4951,105 +4943,109 @@
           <t>-</t>
         </is>
       </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R31" t="n">
+        <v>12</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>2.2</v>
+        <v>-4.5</v>
       </c>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="Z31" t="n">
-        <v>24</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB31" t="n">
-        <v>42</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AD31" t="n">
-        <v>43</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="AG31" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AH31" t="inlineStr">
+        <is>
+          <t>PHX</t>
+        </is>
+      </c>
+      <c r="AI31" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
           <t>LAL</t>
         </is>
       </c>
-      <c r="AG31" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AH31" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="AI31" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AJ31" t="inlineStr">
-        <is>
-          <t>MIL</t>
-        </is>
-      </c>
       <c r="AK31" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AL31" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>LAC</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Karl-Anthony Towns</t>
+          <t>Scottie Barnes</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -5059,33 +5055,33 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
-        <v>27.8</v>
+        <v>33.2</v>
       </c>
       <c r="G32" t="n">
-        <v>31.1</v>
+        <v>33.1</v>
       </c>
       <c r="H32" t="n">
-        <v>35</v>
+        <v>34.1</v>
       </c>
       <c r="I32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -5118,7 +5114,7 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>-2.2</v>
+        <v>2.2</v>
       </c>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
@@ -5129,7 +5125,7 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
@@ -5138,28 +5134,24 @@
         </is>
       </c>
       <c r="Z32" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AB32" t="n">
+        <v>42</v>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AD32" t="n">
         <v>43</v>
       </c>
-      <c r="AA32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="AE32" t="inlineStr">
         <is>
           <t>vs</t>
@@ -5167,17 +5159,17 @@
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH32" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="AI32" t="inlineStr">
@@ -5187,29 +5179,29 @@
       </c>
       <c r="AJ32" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="AK32" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AL32" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>WAS</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>RJ Barrett</t>
+          <t>Karl-Anthony Towns</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -5219,33 +5211,33 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
-        <v>32</v>
+        <v>27.8</v>
       </c>
       <c r="G33" t="n">
-        <v>30.3</v>
+        <v>31.1</v>
       </c>
       <c r="H33" t="n">
-        <v>27.4</v>
+        <v>35</v>
       </c>
       <c r="I33" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J33" t="n">
         <v>1</v>
       </c>
       <c r="K33" t="n">
+        <v>3</v>
+      </c>
+      <c r="L33" t="n">
         <v>0</v>
       </c>
-      <c r="L33" t="n">
-        <v>5</v>
-      </c>
       <c r="M33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -5278,7 +5270,7 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>0.3</v>
+        <v>-2.2</v>
       </c>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
@@ -5289,18 +5281,16 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="Z33" t="n">
+        <v>43</v>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
@@ -5329,49 +5319,49 @@
       </c>
       <c r="AF33" t="inlineStr">
         <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="AG33" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AH33" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="AI33" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>PHX</t>
+        </is>
+      </c>
+      <c r="AK33" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AL33" t="inlineStr">
+        <is>
           <t>LAL</t>
-        </is>
-      </c>
-      <c r="AG33" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AH33" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="AI33" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AJ33" t="inlineStr">
-        <is>
-          <t>MIL</t>
-        </is>
-      </c>
-      <c r="AK33" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AL33" t="inlineStr">
-        <is>
-          <t>WAS</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>D'Angelo Russell</t>
+          <t>RJ Barrett</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -5381,78 +5371,88 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
-        <v>24.4</v>
+        <v>32</v>
       </c>
       <c r="G34" t="n">
-        <v>29.6</v>
+        <v>30.3</v>
       </c>
       <c r="H34" t="n">
-        <v>26.2</v>
+        <v>27.4</v>
       </c>
       <c r="I34" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="O34" t="n">
-        <v>13</v>
-      </c>
-      <c r="P34" t="n">
-        <v>50</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>35</v>
-      </c>
-      <c r="R34" t="n">
-        <v>7</v>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>-1.9</v>
+        <v>0.3</v>
       </c>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="Z34" t="n">
-        <v>31</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
@@ -5476,12 +5476,12 @@
       </c>
       <c r="AE34" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="AG34" t="inlineStr">
@@ -5491,27 +5491,27 @@
       </c>
       <c r="AH34" t="inlineStr">
         <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="AI34" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AJ34" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="AK34" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AL34" t="inlineStr">
+        <is>
           <t>WAS</t>
-        </is>
-      </c>
-      <c r="AI34" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AJ34" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="AK34" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AL34" t="inlineStr">
-        <is>
-          <t>MIN</t>
         </is>
       </c>
     </row>

--- a/Excel/TI/Mon_TI_2024_03_31.xlsx
+++ b/Excel/TI/Mon_TI_2024_03_31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL36"/>
+  <dimension ref="A1:AL34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -628,69 +628,73 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Luka Doncic</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+          <t>Anthony Davis</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Questionable</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>38.6</v>
+        <v>54.8</v>
       </c>
       <c r="G2" t="n">
-        <v>52.3</v>
+        <v>47.9</v>
       </c>
       <c r="H2" t="n">
-        <v>52.9</v>
+        <v>48</v>
       </c>
       <c r="I2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
         <v>2</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N2" t="n">
-        <v>52</v>
-      </c>
-      <c r="O2" t="n">
-        <v>21</v>
+        <v>44</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="P2" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>70</v>
+      </c>
+      <c r="R2" t="n">
         <v>51</v>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R2" t="n">
-        <v>23</v>
-      </c>
       <c r="S2" t="inlineStr">
         <is>
           <t>@</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>-0.8</v>
+        <v>-1.3</v>
       </c>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
@@ -701,7 +705,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -710,7 +714,7 @@
         </is>
       </c>
       <c r="Z2" t="n">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
@@ -739,17 +743,17 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
@@ -759,7 +763,7 @@
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
@@ -769,19 +773,19 @@
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>MIN</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anthony Davis</t>
+          <t>Domantas Sabonis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -792,142 +796,140 @@
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>45.2</v>
+        <v>34.8</v>
       </c>
       <c r="G3" t="n">
-        <v>47.7</v>
+        <v>44.3</v>
       </c>
       <c r="H3" t="n">
-        <v>47.9</v>
+        <v>44.3</v>
       </c>
       <c r="I3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
         <v>8</v>
       </c>
       <c r="N3" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="O3" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="P3" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="Q3" t="n">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="R3" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>-1.5</v>
+        <v>-0.7</v>
       </c>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="Z3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AB3" t="n">
+        <v>44</v>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
           <t>BKN</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="Z3" t="n">
-        <v>57</v>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>TOR</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>WAS</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>MIN</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Domantas Sabonis</t>
+          <t>Victor Wembanyama</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -938,43 +940,45 @@
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>42.4</v>
+        <v>39.2</v>
       </c>
       <c r="G4" t="n">
-        <v>45.2</v>
+        <v>41.4</v>
       </c>
       <c r="H4" t="n">
-        <v>44.9</v>
+        <v>36.3</v>
       </c>
       <c r="I4" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M4" t="n">
         <v>4</v>
       </c>
-      <c r="M4" t="n">
-        <v>10</v>
-      </c>
       <c r="N4" t="n">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="O4" t="n">
-        <v>33</v>
-      </c>
-      <c r="P4" t="n">
-        <v>45</v>
+        <v>30</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="Q4" t="n">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="R4" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -982,7 +986,7 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>-0.1</v>
+        <v>1.8</v>
       </c>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
@@ -993,7 +997,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -1002,7 +1006,7 @@
         </is>
       </c>
       <c r="Z4" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
@@ -1010,7 +1014,7 @@
         </is>
       </c>
       <c r="AB4" t="n">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
@@ -1024,12 +1028,12 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
@@ -1039,17 +1043,17 @@
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
@@ -1059,106 +1063,114 @@
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>MEM</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Victor Wembanyama</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Day-To-Day</t>
-        </is>
-      </c>
+          <t>Donovan Mitchell</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>35</v>
+        <v>21.8</v>
       </c>
       <c r="G5" t="n">
-        <v>39.5</v>
+        <v>37.3</v>
       </c>
       <c r="H5" t="n">
-        <v>35.8</v>
+        <v>38.4</v>
       </c>
       <c r="I5" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="n">
         <v>0</v>
       </c>
-      <c r="K5" t="n">
-        <v>5</v>
-      </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>23</v>
-      </c>
-      <c r="O5" t="n">
-        <v>44</v>
-      </c>
-      <c r="P5" t="n">
-        <v>22</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>57</v>
-      </c>
-      <c r="R5" t="n">
-        <v>29</v>
+        <v>17</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>1.2</v>
+        <v>-4.1</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="Z5" t="n">
-        <v>35</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB5" t="n">
-        <v>31</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
@@ -1177,7 +1189,7 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
@@ -1187,17 +1199,17 @@
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
@@ -1207,36 +1219,36 @@
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>LAC</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Anthony Edwards</t>
+          <t>Kawhi Leonard</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>42.2</v>
+        <v>35.6</v>
       </c>
       <c r="G6" t="n">
-        <v>37.5</v>
+        <v>35.1</v>
       </c>
       <c r="H6" t="n">
-        <v>37</v>
+        <v>37.6</v>
       </c>
       <c r="I6" t="n">
         <v>14</v>
@@ -1248,53 +1260,55 @@
         <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N6" t="n">
+        <v>53</v>
+      </c>
+      <c r="O6" t="n">
+        <v>26</v>
+      </c>
+      <c r="P6" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>27</v>
+      </c>
+      <c r="R6" t="n">
         <v>33</v>
       </c>
-      <c r="O6" t="n">
-        <v>29</v>
-      </c>
-      <c r="P6" t="n">
-        <v>43</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>50</v>
-      </c>
-      <c r="R6" t="n">
-        <v>56</v>
-      </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>-0.5</v>
+        <v>2.3</v>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="Z6" t="n">
-        <v>59</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
@@ -1318,12 +1332,12 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
@@ -1333,132 +1347,138 @@
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>CLE</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bam Adebayo</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
+          <t>Anthony Edwards</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Questionable</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>40.2</v>
+        <v>29</v>
       </c>
       <c r="G7" t="n">
-        <v>34.6</v>
+        <v>34.3</v>
       </c>
       <c r="H7" t="n">
-        <v>37.4</v>
+        <v>36.5</v>
       </c>
       <c r="I7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J7" t="n">
         <v>2</v>
       </c>
       <c r="K7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N7" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O7" t="n">
-        <v>28</v>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="P7" t="n">
+        <v>33</v>
       </c>
       <c r="Q7" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="R7" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>0.9</v>
+        <v>-0.8</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="Z7" t="n">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB7" t="n">
-        <v>35</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AD7" t="n">
-        <v>24</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
@@ -1467,7 +1487,7 @@
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
@@ -1477,7 +1497,7 @@
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
@@ -1487,7 +1507,7 @@
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
@@ -1497,66 +1517,66 @@
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>LAL</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Kawhi Leonard</t>
+          <t>Tyrese Maxey</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>34.4</v>
+        <v>31</v>
       </c>
       <c r="G8" t="n">
-        <v>34.5</v>
+        <v>32.5</v>
       </c>
       <c r="H8" t="n">
-        <v>37.5</v>
+        <v>35</v>
       </c>
       <c r="I8" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J8" t="n">
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N8" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="O8" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="P8" t="n">
+        <v>41</v>
+      </c>
+      <c r="Q8" t="n">
         <v>37</v>
       </c>
-      <c r="Q8" t="n">
-        <v>36</v>
-      </c>
       <c r="R8" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1564,7 +1584,7 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>2.4</v>
+        <v>-1.3</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
@@ -1575,136 +1595,130 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="Z8" t="n">
+        <v>49</v>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB8" t="n">
+        <v>23</v>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AD8" t="n">
+        <v>59</v>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>SAS</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Tyrese Maxey</t>
+          <t>Nikola Vucevic</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>30.2</v>
+        <v>29.4</v>
       </c>
       <c r="G9" t="n">
-        <v>34.2</v>
+        <v>31</v>
       </c>
       <c r="H9" t="n">
-        <v>35.3</v>
+        <v>30.5</v>
       </c>
       <c r="I9" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L9" t="n">
+        <v>7</v>
+      </c>
+      <c r="M9" t="n">
         <v>2</v>
       </c>
-      <c r="L9" t="n">
-        <v>5</v>
-      </c>
-      <c r="M9" t="n">
-        <v>3</v>
-      </c>
       <c r="N9" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="O9" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="P9" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="Q9" t="n">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="R9" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1712,7 +1726,7 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
@@ -1723,7 +1737,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1732,23 +1746,27 @@
         </is>
       </c>
       <c r="Z9" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AB9" t="n">
-        <v>23</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AD9" t="n">
-        <v>59</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
@@ -1757,17 +1775,17 @@
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
@@ -1777,76 +1795,78 @@
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>NYK</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Paul George</t>
+          <t>Evan Mobley</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>37.8</v>
+        <v>27</v>
       </c>
       <c r="G10" t="n">
-        <v>33.3</v>
+        <v>30.9</v>
       </c>
       <c r="H10" t="n">
-        <v>31.7</v>
+        <v>32.1</v>
       </c>
       <c r="I10" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
         <v>2</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
       <c r="L10" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="O10" t="n">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="P10" t="n">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="Q10" t="n">
-        <v>35</v>
-      </c>
-      <c r="R10" t="n">
-        <v>36</v>
+        <v>26</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1854,7 +1874,7 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
@@ -1865,7 +1885,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -1874,7 +1894,7 @@
         </is>
       </c>
       <c r="Z10" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
@@ -1903,175 +1923,171 @@
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAC</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Chet Holmgren</t>
+          <t>Deni Avdija</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="G11" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="H11" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>10</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>33</v>
+      </c>
+      <c r="O11" t="n">
         <v>34</v>
       </c>
-      <c r="G11" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="H11" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="I11" t="n">
-        <v>14</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2</v>
-      </c>
-      <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O11" t="n">
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
         <v>35</v>
       </c>
-      <c r="P11" t="n">
-        <v>64</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>45</v>
-      </c>
       <c r="R11" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>-0.3</v>
+        <v>0.2</v>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="Z11" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB11" t="n">
+        <v>27</v>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AD11" t="n">
+        <v>23</v>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
@@ -2081,19 +2097,19 @@
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>TOR</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Deni Avdija</t>
+          <t>Michael Porter Jr.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -2104,49 +2120,43 @@
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>31.2</v>
+        <v>27.2</v>
       </c>
       <c r="G12" t="n">
-        <v>32.3</v>
+        <v>30.5</v>
       </c>
       <c r="H12" t="n">
-        <v>25.1</v>
+        <v>24.8</v>
       </c>
       <c r="I12" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J12" t="n">
         <v>2</v>
       </c>
       <c r="K12" t="n">
+        <v>6</v>
+      </c>
+      <c r="L12" t="n">
         <v>4</v>
       </c>
-      <c r="L12" t="n">
-        <v>3</v>
-      </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="O12" t="n">
-        <v>28</v>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>23</v>
+      </c>
+      <c r="P12" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>17</v>
+      </c>
+      <c r="R12" t="n">
+        <v>50</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -2154,7 +2164,7 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>-0.1</v>
+        <v>1.2</v>
       </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
@@ -2165,7 +2175,7 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -2174,23 +2184,27 @@
         </is>
       </c>
       <c r="Z12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AB12" t="n">
-        <v>27</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AD12" t="n">
-        <v>23</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
@@ -2199,17 +2213,17 @@
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
@@ -2219,7 +2233,7 @@
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
@@ -2229,94 +2243,96 @@
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>UTA</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Nikola Vucevic</t>
+          <t>Cam Thomas</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>33.8</v>
+        <v>35</v>
       </c>
       <c r="G13" t="n">
-        <v>31.9</v>
+        <v>30.3</v>
       </c>
       <c r="H13" t="n">
-        <v>30.5</v>
+        <v>26.9</v>
       </c>
       <c r="I13" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4</v>
+      </c>
+      <c r="L13" t="n">
         <v>2</v>
       </c>
-      <c r="K13" t="n">
-        <v>3</v>
-      </c>
-      <c r="L13" t="n">
-        <v>8</v>
-      </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N13" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="O13" t="n">
-        <v>31</v>
-      </c>
-      <c r="P13" t="n">
-        <v>32</v>
+        <v>54</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="Q13" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="R13" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="Z13" t="n">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
@@ -2340,12 +2356,12 @@
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
@@ -2355,17 +2371,17 @@
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
@@ -2375,66 +2391,66 @@
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>SAC</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Michael Porter Jr.</t>
+          <t>Nic Claxton</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>32</v>
+        <v>29.6</v>
       </c>
       <c r="G14" t="n">
-        <v>31.5</v>
+        <v>30.1</v>
       </c>
       <c r="H14" t="n">
-        <v>24.9</v>
+        <v>28.1</v>
       </c>
       <c r="I14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N14" t="n">
+        <v>21</v>
+      </c>
+      <c r="O14" t="n">
+        <v>41</v>
+      </c>
+      <c r="P14" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q14" t="n">
         <v>17</v>
       </c>
-      <c r="O14" t="n">
-        <v>50</v>
-      </c>
-      <c r="P14" t="n">
-        <v>35</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>35</v>
-      </c>
       <c r="R14" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -2442,7 +2458,7 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>1.3</v>
+        <v>-0.4</v>
       </c>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
@@ -2453,7 +2469,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2462,7 +2478,7 @@
         </is>
       </c>
       <c r="Z14" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
@@ -2486,22 +2502,22 @@
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
@@ -2511,84 +2527,84 @@
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>SAC</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Evan Mobley</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
+          <t>Jonathan Kuminga</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Questionable</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>32.4</v>
+        <v>24.8</v>
       </c>
       <c r="G15" t="n">
-        <v>31.5</v>
+        <v>29.9</v>
       </c>
       <c r="H15" t="n">
-        <v>32</v>
+        <v>24.6</v>
       </c>
       <c r="I15" t="n">
+        <v>12</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
         <v>7</v>
       </c>
-      <c r="J15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
-      <c r="K15" t="n">
-        <v>2</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="n">
-        <v>3</v>
-      </c>
-      <c r="N15" t="n">
-        <v>26</v>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="P15" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>20</v>
+      </c>
+      <c r="R15" t="n">
+        <v>11</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -2596,7 +2612,7 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1.9</v>
+        <v>-0.4</v>
       </c>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
@@ -2607,134 +2623,130 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="Z15" t="n">
+        <v>31</v>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB15" t="n">
         <v>36</v>
       </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AD15" t="n">
+        <v>17</v>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AL15" t="inlineStr">
+        <is>
           <t>UTA</t>
-        </is>
-      </c>
-      <c r="AG15" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>PHX</t>
-        </is>
-      </c>
-      <c r="AI15" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AJ15" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AL15" t="inlineStr">
-        <is>
-          <t>LAC</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Jonathan Kuminga</t>
+          <t>Austin Reaves</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>25.2</v>
+        <v>34</v>
       </c>
       <c r="G16" t="n">
-        <v>29.9</v>
+        <v>29.3</v>
       </c>
       <c r="H16" t="n">
-        <v>24.5</v>
+        <v>25.9</v>
       </c>
       <c r="I16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>6</v>
+      </c>
+      <c r="L16" t="n">
         <v>3</v>
       </c>
-      <c r="K16" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>9</v>
-      </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N16" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="O16" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="P16" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q16" t="n">
         <v>45</v>
       </c>
-      <c r="Q16" t="n">
-        <v>18</v>
-      </c>
       <c r="R16" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -2742,7 +2754,7 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>-0.4</v>
+        <v>-0.6</v>
       </c>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
@@ -2753,41 +2765,45 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="Z16" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AB16" t="n">
-        <v>36</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AD16" t="n">
-        <v>17</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
@@ -2797,17 +2813,17 @@
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
@@ -2817,7 +2833,7 @@
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIN</t>
         </is>
       </c>
     </row>
@@ -2832,11 +2848,7 @@
           <t>D'Angelo Russell</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Day-To-Day</t>
-        </is>
-      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
           <t>G</t>
@@ -2844,10 +2856,10 @@
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>24.4</v>
+        <v>28.2</v>
       </c>
       <c r="G17" t="n">
-        <v>29.6</v>
+        <v>28.4</v>
       </c>
       <c r="H17" t="n">
         <v>26.2</v>
@@ -2856,41 +2868,41 @@
         <v>12</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K17" t="n">
+        <v>2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2</v>
+      </c>
+      <c r="M17" t="n">
         <v>3</v>
       </c>
-      <c r="L17" t="n">
-        <v>3</v>
-      </c>
-      <c r="M17" t="n">
+      <c r="N17" t="n">
         <v>2</v>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="O17" t="n">
+        <v>29</v>
+      </c>
+      <c r="P17" t="n">
+        <v>47</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R17" t="n">
         <v>13</v>
       </c>
-      <c r="P17" t="n">
-        <v>50</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>35</v>
-      </c>
-      <c r="R17" t="n">
-        <v>7</v>
-      </c>
       <c r="S17" t="inlineStr">
         <is>
           <t>@</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>-1.9</v>
+        <v>-1.7</v>
       </c>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
@@ -2976,69 +2988,61 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Lauri Markkanen</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Questionable</t>
-        </is>
-      </c>
+          <t>Chet Holmgren</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>24.2</v>
+        <v>21</v>
       </c>
       <c r="G18" t="n">
-        <v>29.5</v>
+        <v>28.3</v>
       </c>
       <c r="H18" t="n">
-        <v>34.7</v>
+        <v>30.5</v>
       </c>
       <c r="I18" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K18" t="n">
+        <v>5</v>
+      </c>
+      <c r="L18" t="n">
         <v>2</v>
       </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
       <c r="M18" t="n">
-        <v>2</v>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="N18" t="n">
+        <v>38</v>
       </c>
       <c r="O18" t="n">
-        <v>21</v>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q18" t="n">
-        <v>34</v>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="P18" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R18" t="n">
+        <v>35</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -3046,7 +3050,7 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>-2.7</v>
+        <v>-0.1</v>
       </c>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
@@ -3057,24 +3061,26 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="Z18" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AB18" t="n">
-        <v>30</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
@@ -3088,12 +3094,12 @@
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
@@ -3103,7 +3109,7 @@
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
@@ -3113,17 +3119,17 @@
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>CHA</t>
         </is>
       </c>
     </row>
@@ -3146,19 +3152,19 @@
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>24.4</v>
+        <v>23.4</v>
       </c>
       <c r="G19" t="n">
-        <v>28</v>
+        <v>27.6</v>
       </c>
       <c r="H19" t="n">
-        <v>31</v>
+        <v>30.7</v>
       </c>
       <c r="I19" t="n">
         <v>13</v>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K19" t="n">
         <v>3</v>
@@ -3167,32 +3173,30 @@
         <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N19" t="n">
+        <v>15</v>
+      </c>
+      <c r="O19" t="n">
+        <v>31</v>
+      </c>
+      <c r="P19" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q19" t="n">
         <v>23</v>
       </c>
-      <c r="O19" t="n">
+      <c r="R19" t="n">
         <v>24</v>
       </c>
-      <c r="P19" t="n">
-        <v>39</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>19</v>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="S19" t="inlineStr">
         <is>
           <t>@</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
@@ -3278,59 +3282,59 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nic Claxton</t>
+          <t>Miles Bridges</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G20" t="n">
-        <v>27.7</v>
+        <v>26.7</v>
       </c>
       <c r="H20" t="n">
-        <v>28</v>
+        <v>29.8</v>
       </c>
       <c r="I20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J20" t="n">
+        <v>2</v>
+      </c>
+      <c r="K20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L20" t="n">
         <v>3</v>
       </c>
-      <c r="K20" t="n">
-        <v>5</v>
-      </c>
-      <c r="L20" t="n">
-        <v>6</v>
-      </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="O20" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="P20" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="Q20" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="R20" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -3338,7 +3342,7 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
@@ -3349,7 +3353,7 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
@@ -3358,7 +3362,7 @@
         </is>
       </c>
       <c r="Z20" t="n">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
@@ -3382,12 +3386,12 @@
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
@@ -3397,7 +3401,7 @@
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
@@ -3407,7 +3411,7 @@
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
@@ -3417,94 +3421,94 @@
       </c>
       <c r="AL20" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>OKC</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Cam Thomas</t>
+          <t>Rui Hachimura</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>30.6</v>
+        <v>28.6</v>
       </c>
       <c r="G21" t="n">
-        <v>27.2</v>
+        <v>24.3</v>
       </c>
       <c r="H21" t="n">
-        <v>26.1</v>
+        <v>19.5</v>
       </c>
       <c r="I21" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="O21" t="n">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="P21" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q21" t="n">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="R21" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="Z21" t="n">
-        <v>51</v>
+        <v>-7</v>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
@@ -3533,17 +3537,17 @@
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr">
@@ -3553,7 +3557,7 @@
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
@@ -3563,104 +3567,102 @@
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIN</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Miles Bridges</t>
+          <t>Terry Rozier</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>27</v>
+        <v>22.2</v>
       </c>
       <c r="G22" t="n">
-        <v>26.6</v>
+        <v>24.3</v>
       </c>
       <c r="H22" t="n">
-        <v>30.2</v>
+        <v>27.7</v>
       </c>
       <c r="I22" t="n">
         <v>14</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N22" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O22" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="P22" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Q22" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="R22" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="Z22" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AB22" t="n">
+        <v>24</v>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
@@ -3679,7 +3681,7 @@
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
@@ -3689,39 +3691,39 @@
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>IND</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Austin Reaves</t>
+          <t>Stephen Curry</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -3732,43 +3734,43 @@
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>28.2</v>
+        <v>27.6</v>
       </c>
       <c r="G23" t="n">
-        <v>26.4</v>
+        <v>24.1</v>
       </c>
       <c r="H23" t="n">
-        <v>25.6</v>
+        <v>33.5</v>
       </c>
       <c r="I23" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
         <v>3</v>
       </c>
-      <c r="M23" t="n">
-        <v>2</v>
-      </c>
       <c r="N23" t="n">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="O23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P23" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q23" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="R23" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -3776,7 +3778,7 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>-1.1</v>
+        <v>-1.3</v>
       </c>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
@@ -3787,7 +3789,7 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -3796,7 +3798,7 @@
         </is>
       </c>
       <c r="Z23" t="n">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
@@ -3820,12 +3822,12 @@
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
@@ -3835,17 +3837,17 @@
       </c>
       <c r="AH23" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
@@ -3855,36 +3857,36 @@
       </c>
       <c r="AL23" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>UTA</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Stephen Curry</t>
+          <t>Tobias Harris</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>32.8</v>
+        <v>25.8</v>
       </c>
       <c r="G24" t="n">
-        <v>24.5</v>
+        <v>23.9</v>
       </c>
       <c r="H24" t="n">
-        <v>34</v>
+        <v>27.6</v>
       </c>
       <c r="I24" t="n">
         <v>12</v>
@@ -3893,28 +3895,28 @@
         <v>4</v>
       </c>
       <c r="K24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="O24" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P24" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Q24" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R24" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -3922,7 +3924,7 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>-0.9</v>
+        <v>-1</v>
       </c>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
@@ -3933,87 +3935,83 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="Z24" t="n">
+        <v>53</v>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB24" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AD24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="AG24" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AL24" t="inlineStr">
+        <is>
           <t>SAS</t>
-        </is>
-      </c>
-      <c r="Y24" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="Z24" t="n">
-        <v>47</v>
-      </c>
-      <c r="AA24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE24" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AF24" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="AG24" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AH24" t="inlineStr">
-        <is>
-          <t>HOU</t>
-        </is>
-      </c>
-      <c r="AI24" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AJ24" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="AK24" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AL24" t="inlineStr">
-        <is>
-          <t>UTA</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Terry Rozier</t>
+          <t>Donte DiVincenzo</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -4024,79 +4022,81 @@
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>22.8</v>
+        <v>32.2</v>
       </c>
       <c r="G25" t="n">
-        <v>24.4</v>
+        <v>22.5</v>
       </c>
       <c r="H25" t="n">
-        <v>27.9</v>
+        <v>19.2</v>
       </c>
       <c r="I25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J25" t="n">
+        <v>6</v>
+      </c>
+      <c r="K25" t="n">
         <v>3</v>
-      </c>
-      <c r="K25" t="n">
-        <v>8</v>
       </c>
       <c r="L25" t="n">
         <v>2</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N25" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="O25" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="P25" t="n">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="Q25" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="R25" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>2.3</v>
+        <v>-0.4</v>
       </c>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="Z25" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB25" t="n">
-        <v>24</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
@@ -4110,12 +4110,12 @@
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
@@ -4125,7 +4125,7 @@
       </c>
       <c r="AH25" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="AI25" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="AK25" t="inlineStr">
@@ -4145,19 +4145,19 @@
       </c>
       <c r="AL25" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MIL</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Tobias Harris</t>
+          <t>Andrew Wiggins</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -4168,49 +4168,43 @@
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>19.8</v>
+        <v>25</v>
       </c>
       <c r="G26" t="n">
-        <v>22.9</v>
+        <v>21.7</v>
       </c>
       <c r="H26" t="n">
-        <v>27.8</v>
+        <v>18.5</v>
       </c>
       <c r="I26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O26" t="n">
-        <v>24</v>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>31</v>
+      </c>
+      <c r="P26" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>23</v>
+      </c>
+      <c r="R26" t="n">
+        <v>9</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -4218,7 +4212,7 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>-0.9</v>
+        <v>1.8</v>
       </c>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
@@ -4229,16 +4223,16 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="Z26" t="n">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
@@ -4246,15 +4240,15 @@
         </is>
       </c>
       <c r="AB26" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AD26" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="AE26" t="inlineStr">
         <is>
@@ -4263,7 +4257,7 @@
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="AG26" t="inlineStr">
@@ -4273,7 +4267,7 @@
       </c>
       <c r="AH26" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="AI26" t="inlineStr">
@@ -4283,29 +4277,29 @@
       </c>
       <c r="AJ26" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="AK26" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>UTA</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Andrew Wiggins</t>
+          <t>Brandon Miller</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -4316,87 +4310,93 @@
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>20.4</v>
+        <v>23.8</v>
       </c>
       <c r="G27" t="n">
-        <v>20.7</v>
+        <v>21.5</v>
       </c>
       <c r="H27" t="n">
-        <v>17.9</v>
+        <v>21</v>
       </c>
       <c r="I27" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="n">
+        <v>9</v>
+      </c>
+      <c r="O27" t="n">
+        <v>44</v>
+      </c>
+      <c r="P27" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>10</v>
+      </c>
+      <c r="R27" t="n">
         <v>23</v>
       </c>
-      <c r="O27" t="n">
-        <v>9</v>
-      </c>
-      <c r="P27" t="n">
-        <v>42</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>9</v>
-      </c>
-      <c r="R27" t="n">
-        <v>19</v>
-      </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="Z27" t="n">
-        <v>26</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AB27" t="n">
-        <v>16</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AD27" t="n">
-        <v>9</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AE27" t="inlineStr">
         <is>
@@ -4405,27 +4405,27 @@
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH27" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ27" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="AK27" t="inlineStr">
@@ -4435,19 +4435,19 @@
       </c>
       <c r="AL27" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>OKC</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Donte DiVincenzo</t>
+          <t>Russell Westbrook</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -4458,71 +4458,75 @@
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>20.8</v>
+        <v>12.2</v>
       </c>
       <c r="G28" t="n">
-        <v>19.5</v>
+        <v>13.1</v>
       </c>
       <c r="H28" t="n">
         <v>18.5</v>
       </c>
       <c r="I28" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="O28" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="P28" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>9</v>
-      </c>
-      <c r="R28" t="n">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>-0.6</v>
+        <v>-0.8</v>
       </c>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="Z28" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
@@ -4551,7 +4555,7 @@
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
@@ -4561,39 +4565,39 @@
       </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="AK28" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CLE</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Brandon Miller</t>
+          <t>Gordon Hayward</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -4604,147 +4608,147 @@
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G29" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="H29" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>14</v>
+      </c>
+      <c r="J29" t="n">
         <v>13</v>
       </c>
-      <c r="G29" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="H29" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="I29" t="n">
-        <v>13</v>
-      </c>
-      <c r="J29" t="n">
-        <v>6</v>
-      </c>
       <c r="K29" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O29" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P29" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>14</v>
+        <v>-2</v>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="R29" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>1.8</v>
+        <v>-0.5</v>
       </c>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="Z29" t="n">
+        <v>9</v>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB29" t="n">
+        <v>8</v>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AD29" t="n">
+        <v>3</v>
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="AG29" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AH29" t="inlineStr">
+        <is>
           <t>BOS</t>
         </is>
       </c>
-      <c r="AG29" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AH29" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ29" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="AK29" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>CHA</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Gordon Hayward</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
+          <t>Scottie Barnes</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr">
         <is>
           <t>F</t>
@@ -4752,19 +4756,19 @@
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>8.6</v>
+        <v>33.2</v>
       </c>
       <c r="G30" t="n">
-        <v>9</v>
+        <v>33.1</v>
       </c>
       <c r="H30" t="n">
-        <v>17.8</v>
+        <v>34.1</v>
       </c>
       <c r="I30" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -4780,36 +4784,44 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O30" t="n">
-        <v>9</v>
-      </c>
-      <c r="P30" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>9</v>
-      </c>
-      <c r="R30" t="n">
-        <v>11</v>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>-0.3</v>
+        <v>2.2</v>
       </c>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
@@ -4818,32 +4830,32 @@
         </is>
       </c>
       <c r="Z30" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB30" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AD30" t="n">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="AG30" t="inlineStr">
@@ -4853,7 +4865,7 @@
       </c>
       <c r="AH30" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="AI30" t="inlineStr">
@@ -4863,29 +4875,29 @@
       </c>
       <c r="AJ30" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AL30" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>WAS</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Donovan Mitchell</t>
+          <t>Lauri Markkanen</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4895,48 +4907,44 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>23.6</v>
+        <v>37.4</v>
       </c>
       <c r="G31" t="n">
-        <v>38.9</v>
+        <v>31.2</v>
       </c>
       <c r="H31" t="n">
-        <v>38.8</v>
+        <v>35.1</v>
       </c>
       <c r="I31" t="n">
         <v>5</v>
       </c>
       <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="n">
         <v>2</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>2</v>
       </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
       <c r="N31" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="O31" t="n">
+        <v>35</v>
+      </c>
+      <c r="P31" t="n">
+        <v>56</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -4944,7 +4952,7 @@
         </is>
       </c>
       <c r="R31" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -4952,7 +4960,7 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>-4.5</v>
+        <v>-3.1</v>
       </c>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
@@ -4963,89 +4971,85 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="Z31" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB31" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE31" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF31" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="AG31" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AH31" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="AI31" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AL31" t="inlineStr">
+        <is>
           <t>DEN</t>
-        </is>
-      </c>
-      <c r="Y31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE31" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AF31" t="inlineStr">
-        <is>
-          <t>UTA</t>
-        </is>
-      </c>
-      <c r="AG31" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AH31" t="inlineStr">
-        <is>
-          <t>PHX</t>
-        </is>
-      </c>
-      <c r="AI31" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AJ31" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="AK31" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AL31" t="inlineStr">
-        <is>
-          <t>LAC</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Scottie Barnes</t>
+          <t>Karl-Anthony Towns</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -5055,21 +5059,21 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
-        <v>33.2</v>
+        <v>27.8</v>
       </c>
       <c r="G32" t="n">
-        <v>33.1</v>
+        <v>31.1</v>
       </c>
       <c r="H32" t="n">
-        <v>34.1</v>
+        <v>35</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
@@ -5081,7 +5085,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -5114,7 +5118,7 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>2.2</v>
+        <v>-2.2</v>
       </c>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
@@ -5125,7 +5129,7 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
@@ -5134,23 +5138,27 @@
         </is>
       </c>
       <c r="Z32" t="n">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB32" t="n">
-        <v>42</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AD32" t="n">
-        <v>43</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AE32" t="inlineStr">
         <is>
@@ -5159,49 +5167,49 @@
       </c>
       <c r="AF32" t="inlineStr">
         <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="AG32" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AH32" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="AI32" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AJ32" t="inlineStr">
+        <is>
+          <t>PHX</t>
+        </is>
+      </c>
+      <c r="AK32" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AL32" t="inlineStr">
+        <is>
           <t>LAL</t>
-        </is>
-      </c>
-      <c r="AG32" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AH32" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="AI32" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AJ32" t="inlineStr">
-        <is>
-          <t>MIL</t>
-        </is>
-      </c>
-      <c r="AK32" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AL32" t="inlineStr">
-        <is>
-          <t>WAS</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Karl-Anthony Towns</t>
+          <t>RJ Barrett</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -5211,18 +5219,18 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
-        <v>27.8</v>
+        <v>32</v>
       </c>
       <c r="G33" t="n">
-        <v>31.1</v>
+        <v>30.3</v>
       </c>
       <c r="H33" t="n">
-        <v>35</v>
+        <v>27.4</v>
       </c>
       <c r="I33" t="n">
         <v>4</v>
@@ -5231,13 +5239,13 @@
         <v>1</v>
       </c>
       <c r="K33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -5270,7 +5278,7 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>-2.2</v>
+        <v>0.3</v>
       </c>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
@@ -5281,16 +5289,18 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="Z33" t="n">
-        <v>43</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
@@ -5319,17 +5329,17 @@
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="AG33" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH33" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="AI33" t="inlineStr">
@@ -5339,29 +5349,29 @@
       </c>
       <c r="AJ33" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="AK33" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AL33" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>WAS</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>RJ Barrett</t>
+          <t>Tyler Herro</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -5371,33 +5381,33 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
-        <v>32</v>
+        <v>28.4</v>
       </c>
       <c r="G34" t="n">
-        <v>30.3</v>
+        <v>22.3</v>
       </c>
       <c r="H34" t="n">
-        <v>27.4</v>
+        <v>26.8</v>
       </c>
       <c r="I34" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -5426,74 +5436,70 @@
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>0.3</v>
+        <v>-1.5</v>
       </c>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
         <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="Z34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB34" t="n">
+        <v>46</v>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE34" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF34" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="AG34" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AH34" t="inlineStr">
+        <is>
           <t>PHI</t>
         </is>
       </c>
-      <c r="Y34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE34" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AF34" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="AG34" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AH34" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
       <c r="AI34" t="inlineStr">
         <is>
           <t>@</t>
@@ -5501,335 +5507,17 @@
       </c>
       <c r="AJ34" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="AK34" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AL34" t="inlineStr">
         <is>
-          <t>WAS</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>MIA</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Tyler Herro</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Out</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="G35" t="n">
-        <v>22.3</v>
-      </c>
-      <c r="H35" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="T35" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="X35" t="inlineStr">
-        <is>
-          <t>WAS</t>
-        </is>
-      </c>
-      <c r="Y35" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="Z35" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA35" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AB35" t="n">
-        <v>46</v>
-      </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE35" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AF35" t="inlineStr">
-        <is>
-          <t>NYK</t>
-        </is>
-      </c>
-      <c r="AG35" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AH35" t="inlineStr">
-        <is>
-          <t>PHI</t>
-        </is>
-      </c>
-      <c r="AI35" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AJ35" t="inlineStr">
-        <is>
-          <t>HOU</t>
-        </is>
-      </c>
-      <c r="AK35" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AL35" t="inlineStr">
-        <is>
           <t>IND</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>LAC</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Russell Westbrook</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Out</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="G36" t="n">
-        <v>13</v>
-      </c>
-      <c r="H36" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="I36" t="n">
-        <v>3</v>
-      </c>
-      <c r="J36" t="n">
-        <v>3</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="T36" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="X36" t="inlineStr">
-        <is>
-          <t>CHA</t>
-        </is>
-      </c>
-      <c r="Y36" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="Z36" t="n">
-        <v>37</v>
-      </c>
-      <c r="AA36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE36" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AF36" t="inlineStr">
-        <is>
-          <t>SAC</t>
-        </is>
-      </c>
-      <c r="AG36" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AH36" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="AI36" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AJ36" t="inlineStr">
-        <is>
-          <t>UTA</t>
-        </is>
-      </c>
-      <c r="AK36" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AL36" t="inlineStr">
-        <is>
-          <t>CLE</t>
         </is>
       </c>
     </row>
